--- a/data/case1/13/Q_device_14.xlsx
+++ b/data/case1/13/Q_device_14.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.031306895030521829</v>
+        <v>-0.026854260769989355</v>
       </c>
       <c r="B1" s="0">
-        <v>0.031306895022010464</v>
+        <v>0.026854260751806719</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.036036468766077079</v>
+        <v>0.011250905918788662</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.03603646878221288</v>
+        <v>-0.011250905968868187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.012148943205965887</v>
+        <v>-0.014911512719387792</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0121489432317392</v>
+        <v>0.014911512690406623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.070416650090552729</v>
+        <v>-0.056300293751726294</v>
       </c>
       <c r="B4" s="0">
-        <v>0.07041665007405383</v>
+        <v>0.056300293718163565</v>
       </c>
     </row>
     <row r="5">
